--- a/DoanNgocLinh_lab3.xlsx
+++ b/DoanNgocLinh_lab3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DISK_D\Hocky2_2025_2026\DBCLVKTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541137AE-3E02-43BC-9736-CFE8A89884B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972687C4-55BB-493E-AB00-F49C2D2D9ADF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515" activeTab="7" xr2:uid="{12546895-EA18-4234-AF93-D6CE930EE62D}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Bài 5" sheetId="5" r:id="rId5"/>
     <sheet name="bài 6" sheetId="6" r:id="rId6"/>
     <sheet name="bài 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Bài 8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -4331,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E315BA-DC79-47FC-9F2C-D67B34C5DC0C}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
